--- a/pred_ohlcv/54_21/2019-10-26 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1094225.166329371</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>920798.4540293706</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>920674.4540293706</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>920231.1209293705</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>947581.1209293705</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>908152.7353293705</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>912702.7351293705</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>861569.5054741983</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1220555.985774198</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1221401.985774198</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1052272.362874198</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1068643.051174198</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1003910.051174198</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1148379.768324539</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>866995.6794245385</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1094225.166329371</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>920798.4540293706</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>920674.4540293706</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>920231.1209293705</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>947581.1209293705</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>908152.7353293705</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>912702.7351293705</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>861569.5054741983</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1232295.985774198</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1220555.985774198</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1221401.985774198</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1185149.350274198</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1181387.982374198</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1052272.362874198</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1068643.051174198</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1003910.051174198</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>866995.6794245385</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
